--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R7b5734990a49427c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R5249224d519f4e24"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R5249224d519f4e24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rb793edc0cd93412a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rb793edc0cd93412a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R9e3e2a4bfd994fd4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R9e3e2a4bfd994fd4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R6d39269679354411"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,24 +28,24 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -58,13 +58,13 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF00"/>
+        <x:fgColor rgb="FFFFFF00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="00FF00"/>
+        <x:fgColor rgb="FF00FF00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R6d39269679354411"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R08fc352604084892"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R08fc352604084892"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rd5a60ce1a8de4278"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rd5a60ce1a8de4278"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rb01a3f57603b46ec"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rb01a3f57603b46ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R48a22f201d784bbe"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R48a22f201d784bbe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R68f70fff132e40b0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R68f70fff132e40b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R3a5c41b620794cf6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R3a5c41b620794cf6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R8f4daac90f594c3c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R8f4daac90f594c3c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R4d28169163284fba"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R4d28169163284fba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R98f7787b1637400d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R98f7787b1637400d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rf65d01d413154460"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rf65d01d413154460"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R9b8b4082ebec4d20"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R9b8b4082ebec4d20"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rf149dd8f59b743b0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rf149dd8f59b743b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R5be80b04d8b742dd"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R5be80b04d8b742dd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rdeacf2865c574449"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rdeacf2865c574449"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R3cf578042a71464c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R3cf578042a71464c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rc5f28bca452f4a28"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rc5f28bca452f4a28"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R8b9a3ba39a7f41b5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R8b9a3ba39a7f41b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R18a8507886c049df"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R18a8507886c049df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R8fc278e8a20449db"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R8fc278e8a20449db"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rb843b0d711f64247"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rb843b0d711f64247"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R61bf8d7ab4a8405b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R61bf8d7ab4a8405b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R54fcc30b0ab04ba5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R54fcc30b0ab04ba5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rc479dfa10b2540f7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rc479dfa10b2540f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R728126d101a3418c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R728126d101a3418c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R145e4451aa1e44b1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R145e4451aa1e44b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rddd06edbb1934b23"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rddd06edbb1934b23"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R8e242e6895074926"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R8e242e6895074926"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rbcd76e2e3988401f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rbcd76e2e3988401f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R41e6fdfcd2094fa0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R41e6fdfcd2094fa0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R0fa240fbfdfd4bf6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R0fa240fbfdfd4bf6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Re6a6e18730a7437c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Re6a6e18730a7437c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R03f6150e346549e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R03f6150e346549e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Raf7a1ad8fce24595"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Raf7a1ad8fce24595"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rb7f10761c0834955"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rb7f10761c0834955"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R73b15cbf7f754e33"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R73b15cbf7f754e33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R406bcf480e3c434c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R406bcf480e3c434c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R6e3d92db853041a6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R6e3d92db853041a6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rb1493c54007d4b88"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rb1493c54007d4b88"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R4088033c34c448c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R4088033c34c448c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rae301794df954448"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/26_MultiRangeFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="Rae301794df954448"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultiRangeFormula" sheetId="1" r:id="R5df6bb484e914ec6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
